--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/player/Die Bierkutscher.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/player/Die Bierkutscher.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>firstName</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>MALE</t>
+  </si>
+  <si>
+    <t>Mirko</t>
+  </si>
+  <si>
+    <t>Cofalla</t>
   </si>
   <si>
     <t>Harald</t>
@@ -94,18 +100,12 @@
     </font>
     <font/>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -129,9 +129,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -140,11 +137,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -204,7 +201,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -225,7 +222,7 @@
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -240,21 +237,21 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -274,7 +271,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -288,14 +285,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
